--- a/public/数据检测上传表格.xlsx
+++ b/public/数据检测上传表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,16 +697,16 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="10"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
@@ -750,7 +750,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
@@ -760,7 +760,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="14" t="s">
         <v>54</v>
@@ -772,7 +772,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
@@ -782,7 +782,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
@@ -794,7 +794,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
@@ -804,7 +804,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="11" t="s">
         <v>10</v>
@@ -816,7 +816,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
@@ -826,7 +826,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
@@ -838,7 +838,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
@@ -848,7 +848,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="3" t="s">
@@ -872,7 +872,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
@@ -882,7 +882,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
@@ -892,7 +892,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="3" t="s">
@@ -902,7 +902,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="3" t="s">
@@ -912,7 +912,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
@@ -922,7 +922,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="3" t="s">
@@ -932,7 +932,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="3" t="s">
@@ -942,7 +942,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="3" t="s">
@@ -952,7 +952,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="12"/>
       <c r="C24" s="3" t="s">
@@ -976,7 +976,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="12"/>
       <c r="C25" s="3" t="s">
@@ -986,7 +986,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
@@ -996,7 +996,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="11" t="s">
         <v>28</v>
@@ -1008,7 +1008,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="12"/>
       <c r="C28" s="6" t="s">
@@ -1018,7 +1018,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="13"/>
       <c r="C29" s="5" t="s">
@@ -1028,7 +1028,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="11" t="s">
         <v>29</v>
@@ -1040,7 +1040,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
@@ -1050,7 +1050,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="12"/>
       <c r="C32" s="6" t="s">
@@ -1060,7 +1060,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="12"/>
       <c r="C33" s="5" t="s">
@@ -1070,7 +1070,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="12"/>
       <c r="C34" s="5" t="s">
@@ -1080,7 +1080,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="12"/>
       <c r="C35" s="6" t="s">
@@ -1090,7 +1090,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="13"/>
       <c r="C36" s="5" t="s">
@@ -1100,7 +1100,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="5" t="s">
@@ -1124,7 +1124,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="5" t="s">
@@ -1134,7 +1134,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="7" t="s">
@@ -1144,7 +1144,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="11" t="s">
         <v>41</v>
@@ -1156,7 +1156,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
@@ -1166,7 +1166,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="11" t="s">
         <v>44</v>
@@ -1178,7 +1178,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="5" t="s">
@@ -1188,7 +1188,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5" t="s">
@@ -1198,7 +1198,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="5" t="s">
@@ -1208,7 +1208,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="5" t="s">
@@ -1218,7 +1218,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="6" t="s">
@@ -1228,7 +1228,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="3" t="s">
